--- a/SolvedMDP.xlsx
+++ b/SolvedMDP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t xml:space="preserve">Actions </t>
   </si>
@@ -179,6 +179,63 @@
   </si>
   <si>
     <t xml:space="preserve">A (constrain matrix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,2</t>
   </si>
   <si>
     <t xml:space="preserve">J = 1</t>
@@ -241,6 +298,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -322,18 +380,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C8:AN42"/>
+  <dimension ref="C8:BE43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN42" activeCellId="0" sqref="AN42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
     <col collapsed="false" hidden="true" max="2" min="2" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,250 +807,185 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="R26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="U26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="W26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB26" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC26" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE26" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ26" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK26" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL26" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM26" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN26" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="0" t="n">
-        <v>0</v>
+      <c r="F27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK27" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN27" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO27" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR27" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT27" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU27" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE27" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>-0.8</v>
@@ -1016,25 +1009,25 @@
         <v>0</v>
       </c>
       <c r="N28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="O28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>0</v>
@@ -1094,75 +1087,126 @@
         <v>0</v>
       </c>
       <c r="AN28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="K29" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="J29" s="0" t="n">
+      <c r="L29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="K29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Y29" s="0" t="n">
         <v>0</v>
@@ -1210,21 +1254,72 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>0</v>
@@ -1233,31 +1328,31 @@
         <v>-0.8</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>0</v>
@@ -1326,12 +1421,63 @@
         <v>0</v>
       </c>
       <c r="AN30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>0</v>
@@ -1349,64 +1495,64 @@
         <v>0</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N31" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="M31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>-0.1</v>
-      </c>
       <c r="P31" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Q31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="V31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Z31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AA31" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AB31" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AC31" s="0" t="n">
         <v>0</v>
@@ -1442,99 +1588,150 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="W32" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="M32" s="0" t="n">
+      <c r="X32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="N32" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="0" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="W32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Y32" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Z32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AD32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE32" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AG32" s="0" t="n">
         <v>0</v>
@@ -1558,12 +1755,63 @@
         <v>0</v>
       </c>
       <c r="AN32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0</v>
@@ -1572,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>0</v>
@@ -1590,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>0</v>
@@ -1605,28 +1853,28 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="0" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y33" s="0" t="n">
         <v>0</v>
@@ -1653,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="AG33" s="0" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="AH33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AI33" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ33" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AK33" s="0" t="n">
         <v>0</v>
@@ -1674,12 +1922,63 @@
         <v>0</v>
       </c>
       <c r="AN33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0</v>
@@ -1697,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>0</v>
@@ -1721,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="S34" s="0" t="n">
         <v>0</v>
@@ -1736,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>0</v>
@@ -1757,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="AC34" s="0" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE34" s="0" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>0</v>
@@ -1790,12 +2089,63 @@
         <v>0</v>
       </c>
       <c r="AN34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
@@ -1822,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="L35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="M35" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>0</v>
@@ -1843,75 +2193,126 @@
         <v>0</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Y35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="0" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AG35" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AH35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="0" t="n">
+      <c r="AP35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AR35" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AS35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
@@ -1938,26 +2339,26 @@
         <v>0</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="P36" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="S36" s="0" t="n">
         <v>-0.1</v>
       </c>
@@ -1965,69 +2366,120 @@
         <v>-0.1</v>
       </c>
       <c r="U36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AD36" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE36" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH36" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AI36" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="V36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AA36" s="0" t="n">
+      <c r="AJ36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AB36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="0" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AI36" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AJ36" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AK36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="0" t="n">
+      <c r="AT36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AV36" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AW36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
@@ -2054,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>0</v>
@@ -2084,66 +2536,117 @@
         <v>0</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="W37" s="0" t="n">
         <v>-0.1</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Y37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AD37" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AE37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Z37" s="0" t="n">
+      <c r="AG37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AA37" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AB37" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AC37" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AD37" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AE37" s="0" t="n">
+      <c r="AH37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AL37" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AM37" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AF37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="0" t="n">
+      <c r="AN37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AL37" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AM37" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AN37" s="0" t="n">
+      <c r="AX37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AZ37" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BA37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
@@ -2170,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>0</v>
@@ -2188,78 +2691,129 @@
         <v>0</v>
       </c>
       <c r="R38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH38" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AI38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="S38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AA38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="0" t="n">
+      <c r="AK38" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AL38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AN38" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO38" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AP38" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AQ38" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AC38" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD38" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AE38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="0" t="n">
+      <c r="AR38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BB38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BD38" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BE38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0</v>
@@ -2286,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>0</v>
@@ -2310,31 +2864,31 @@
         <v>0</v>
       </c>
       <c r="T39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="U39" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="V39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AA39" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AB39" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AC39" s="0" t="n">
         <v>0</v>
@@ -2346,36 +2900,87 @@
         <v>0</v>
       </c>
       <c r="AF39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AL39" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AM39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AO39" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="AG39" s="0" t="n">
+      <c r="AP39" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="AH39" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AI39" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AJ39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="0" t="n">
+      <c r="AQ39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
@@ -2402,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>0</v>
@@ -2435,63 +3040,114 @@
         <v>0</v>
       </c>
       <c r="W40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="X40" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Y40" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Z40" s="0" t="n">
+      <c r="AE40" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AF40" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AG40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT40" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU40" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AV40" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW40" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AX40" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AY40" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AA40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AG40" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AH40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AJ40" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AK40" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AL40" s="0" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AM40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="0" t="n">
+      <c r="AZ40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
@@ -2518,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>0</v>
@@ -2563,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="AA41" s="0" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="0" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="0" t="n">
         <v>0</v>
@@ -2584,30 +3240,81 @@
         <v>0</v>
       </c>
       <c r="AH41" s="0" t="n">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="AI41" s="0" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ41" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AK41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AT41" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AU41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AK41" s="0" t="n">
+      <c r="AW41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AL41" s="0" t="n">
+      <c r="AX41" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AY41" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="AM41" s="0" t="n">
+      <c r="AZ41" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="AN41" s="0" t="n">
+      <c r="BA41" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BB41" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BC41" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BD41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
@@ -2634,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N42" s="0" t="n">
         <v>0</v>
@@ -2688,36 +3395,254 @@
         <v>0</v>
       </c>
       <c r="AD42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AE42" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AF42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AL42" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AM42" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AN42" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AO42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AX42" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AY42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AN42" s="0" t="n">
+      <c r="BA42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB42" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BC42" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BD42" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BE42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AQ43" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AR43" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AS43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BB43" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BC43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BE43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
